--- a/Table/MagicTable_Map.xlsx
+++ b/Table/MagicTable_Map.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>index</t>
   </si>
@@ -55,10 +55,82 @@
     <t>WhiteFlower 마법</t>
   </si>
   <si>
-    <t>Art/Game/Magic/Snow/Petal</t>
-  </si>
-  <si>
-    <t>eof</t>
+    <t>Cave1_Blue</t>
+  </si>
+  <si>
+    <t>Rock  마법1</t>
+  </si>
+  <si>
+    <t>Art/Game/Magic/Rock_Blue</t>
+  </si>
+  <si>
+    <t>Cave2_Red</t>
+  </si>
+  <si>
+    <t>Rock  마법2</t>
+  </si>
+  <si>
+    <t>Art/Game/Magic/Rock_Purple</t>
+  </si>
+  <si>
+    <t>Cave3_Geen</t>
+  </si>
+  <si>
+    <t>Rock  마법3</t>
+  </si>
+  <si>
+    <t>Art/Game/Magic/Rock_Green</t>
+  </si>
+  <si>
+    <t>Forest1_Green</t>
+  </si>
+  <si>
+    <t>Leaf 마법1</t>
+  </si>
+  <si>
+    <t>Art/Game/Magic/Leaf_green</t>
+  </si>
+  <si>
+    <t>Forest2_Blue</t>
+  </si>
+  <si>
+    <t>Leaf 마법2</t>
+  </si>
+  <si>
+    <t>Art/Game/Magic/Leaf_Blue</t>
+  </si>
+  <si>
+    <t>Forest3_Pink</t>
+  </si>
+  <si>
+    <t>Leaf 마법3</t>
+  </si>
+  <si>
+    <t>Art/Game/Magic/Leaf_Purple</t>
+  </si>
+  <si>
+    <t>Sea_Moon1</t>
+  </si>
+  <si>
+    <t>Star 마법1</t>
+  </si>
+  <si>
+    <t>Art/Game/Magic/Star</t>
+  </si>
+  <si>
+    <t>Sea_Moon2</t>
+  </si>
+  <si>
+    <t>Star 마법2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Sea_Moon3</t>
+  </si>
+  <si>
+    <t>Star 마법3</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1613,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s" s="16">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -1554,9 +1626,15 @@
       <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="B7" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s" s="16">
+        <v>16</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="12"/>
@@ -1568,9 +1646,15 @@
       <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s" s="16">
+        <v>19</v>
+      </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="12"/>
@@ -1582,9 +1666,15 @@
       <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s" s="16">
+        <v>22</v>
+      </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="12"/>
@@ -1596,9 +1686,15 @@
       <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s" s="16">
+        <v>25</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="12"/>
@@ -1610,9 +1706,15 @@
       <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s" s="16">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s" s="16">
+        <v>28</v>
+      </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="12"/>
@@ -1624,9 +1726,15 @@
       <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s" s="16">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s" s="16">
+        <v>31</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="12"/>
@@ -1638,9 +1746,15 @@
       <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" t="s" s="16">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s" s="16">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s" s="16">
+        <v>34</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="12"/>
@@ -1652,9 +1766,15 @@
       <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="B14" t="s" s="16">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s" s="16">
+        <v>34</v>
+      </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="12"/>
@@ -1664,11 +1784,17 @@
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="B15" t="s" s="18">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s" s="18">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s" s="18">
+        <v>34</v>
+      </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="7"/>
